--- a/results/I3_N5_M2_T30_C100_DepLowerLeft_s0_res_fix.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepLowerLeft_s0_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2854.026172329646</v>
+        <v>856.0334744910118</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006999969482421875</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40.6700068851427</v>
+        <v>40.41489103751928</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.12083754371615</v>
+        <v>11.28655295097302</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.18700298823897</v>
+        <v>10.90513640446556</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2438.899999999981</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>388.39</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20.63858450874014</v>
+        <v>9.361415491259855</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16.75223660871884</v>
+        <v>14.14124586622719</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10.69357170702614</v>
+        <v>22.94108823397055</v>
       </c>
     </row>
     <row r="6">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.752483473055587</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>28.12809122220952</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25.42779881720021</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1071,10 +1071,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1085,10 +1085,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1099,10 +1099,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1113,10 +1113,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1127,85 +1127,15 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1308,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>328.8449999999975</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -1319,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>335.129999999999</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -1330,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>346.3549999999985</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -1341,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>340.924999999998</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
@@ -1352,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>348.8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -1363,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>260.6699999999987</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
@@ -1374,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>259</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14">
@@ -1385,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>270.5149999999993</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15">
@@ -1396,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>264.0149999999988</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16">
@@ -1407,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>272.95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17">
@@ -1418,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>154.4099999999991</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
@@ -1429,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1349999999991</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
@@ -1440,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>162.7899999999991</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
@@ -1451,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>152.0549999999991</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -1462,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>162</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
@@ -1473,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.515</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23">
@@ -1484,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96.92</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24">
@@ -1495,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>106.645</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25">
@@ -1506,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>103.745</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26">
@@ -1517,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>100.49</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27">
@@ -1528,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>61.37999999999978</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1539,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>61.35999999999979</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
@@ -1550,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>65.61999999999978</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
@@ -1561,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.05999999999977</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1572,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>64.25999999999978</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1583,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>328.8449999999966</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33">
@@ -1594,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>335.1299999999985</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34">
@@ -1605,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>346.3549999999978</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
@@ -1616,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>340.9249999999973</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36">
@@ -1627,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>348.8</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37">
@@ -1638,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>108.515</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38">
@@ -1649,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>96.92</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39">
@@ -1660,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>106.645</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40">
@@ -1671,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>103.745</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41">
@@ -1682,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>100.49</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>228.8449999999966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1740,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>235.1299999999985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1751,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>246.3549999999978</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1762,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>240.9249999999973</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1773,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>248.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1784,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>8.515000000000001</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
@@ -1795,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -1806,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>6.645000000000003</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
@@ -1817,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3.744999999999997</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
@@ -1828,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0.490000000000002</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -1886,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -1897,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -1908,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -1919,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -1930,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1941,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1952,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1963,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1974,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1985,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6.515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1996,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>4.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2007,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2018,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2029,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2040,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -2051,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -2062,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -2073,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -2084,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -2095,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2106,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2117,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2128,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2139,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2180,7 +2110,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2191,7 +2121,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2202,7 +2132,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2213,7 +2143,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2224,7 +2154,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2235,10 +2165,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2246,10 +2176,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2257,10 +2187,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2268,10 +2198,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2279,10 +2209,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2290,10 +2220,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2301,10 +2231,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2312,78 +2242,12 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>
